--- a/音频需求表V1.0.xlsx
+++ b/音频需求表V1.0.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,35 +37,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>匹配成功进入游戏后播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色背面接触光线音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开游戏后播放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>匹配成功进入游戏后播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>各技能音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>释放技能时的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色正面接触光线音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色背面接触光线音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负反馈</t>
+    <t>提供以正反馈为主的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供以负反馈为主的感觉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +83,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -109,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,60 +404,61 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/音频需求表V1.0.xlsx
+++ b/音频需求表V1.0.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>登录、匹配界面BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>游戏界面BGM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,31 +37,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>释放技能时的音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>角色背面接触光线音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色正面接触光线音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑夜降临音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能黑夜降临时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五雷轰顶音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能五雷轰顶时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体混乱音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头顶出现混乱状态时的伴随音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能保护罩时的音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>打开游戏后播放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>各技能音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色正面接触光线音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供以正反馈为主的感觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供以负反馈为主的感觉</t>
+    <t>登录界面BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色死亡音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色被击退到墙上音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粒子护盾音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射光线音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发射光线音效（只有自己听得到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色被击退到墙上音效（只有自己听得到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色镜子死亡后的声音（只有自己听得到）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击按钮音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击所有按钮的伴随音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供以正反馈为主的感觉（只有自己听得到），很短</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供以负反馈为主的感觉（只有自己听得到），很短</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,65 +457,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
